--- a/metadata_ISO19115_pour_scriptR-ZATU-V3_3_prepared2_guideline.xlsx
+++ b/metadata_ISO19115_pour_scriptR-ZATU-V3_3_prepared2_guideline.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="337">
   <si>
     <t>title</t>
   </si>
@@ -579,39 +579,6 @@
   </si>
   <si>
     <t>http://www.iphc.cnrs.fr/</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0001_colibri</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0002_colibri</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0003_colibri</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0004_sols</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0005_arbres</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0006_sediments</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0007_mineraux</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0008_mesanges</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0009_colibri</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0010_colibri</t>
-  </si>
-  <si>
-    <t>180089013-FR-20190210-ZATU_0011_eaux</t>
   </si>
   <si>
     <t>completed</t>
@@ -791,9 +758,6 @@
     <t>type de représentation</t>
   </si>
   <si>
-    <t>vector, raster</t>
-  </si>
-  <si>
     <t>préciser la langue des données décrites</t>
   </si>
   <si>
@@ -1010,9 +974,6 @@
     <t>series</t>
   </si>
   <si>
-    <t>raster</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
@@ -1059,6 +1020,126 @@
   </si>
   <si>
     <t>Si la fiche fait partie d'une série, mettre l'identifiant (resource_identifier) de la fiche parent décrivant la série.</t>
+  </si>
+  <si>
+    <t>imageDigital</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>textTable</t>
+  </si>
+  <si>
+    <t>vector, grid</t>
+  </si>
+  <si>
+    <t>IMG_6718</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190210-LIENSS_EVEX_Oleron06mars2019_0001</t>
+  </si>
+  <si>
+    <t>Photo source</t>
+  </si>
+  <si>
+    <t>2009-05-02</t>
+  </si>
+  <si>
+    <t>2018-11-02</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> industrie minérale---https://www.eionet.europa.eu/gemet/fr/concept/5268, sol contaminé---https://www.eionet.europa.eu/gemet/fr/concept/1751, analyse de l'eau---http://www.eionet.europa.eu/gemet/concept/9148</t>
+  </si>
+  <si>
+    <t>mannaig.lharidon@univ-lr.fr</t>
+  </si>
+  <si>
+    <t>U.M.R 7266 LIENSs, Université de la Rochelle et CNRS</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>L'haridon</t>
+  </si>
+  <si>
+    <t>Mannaïg</t>
+  </si>
+  <si>
+    <t>2 rue Olympe de Gouges, 17000 La Rochelle</t>
+  </si>
+  <si>
+    <t>La Rochelle</t>
+  </si>
+  <si>
+    <t>https://lienss.univ-larochelle.fr/</t>
+  </si>
+  <si>
+    <t>33 (0)5 46 45 82 64</t>
+  </si>
+  <si>
+    <t>33 (0)5 46 45 82 74</t>
+  </si>
+  <si>
+    <t>nathalie.long@univ-lr.fr</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>Y:\DONNEES\MISSIONS DRONE\EVEX SUIVI OLERON\20160922-23_Oleron</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>2016-09-22_TDC_LIENSs_L93_Gatseau.shp</t>
+  </si>
+  <si>
+    <t>Y:\DONNEES\MISSIONS DRONE\EVEX SUIVI OLERON\20160922-23_Oleron\04_Rapport\20160922-23_Oleron_Orthomosaique.jpg</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0001</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0002</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0003</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0004</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0005</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0006</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0007</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0008</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0009</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0010</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0011</t>
+  </si>
+  <si>
+    <t>180089013-FR-20190307-LIENSS_EVEX_Oleron06mars2019_0012</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1437,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1399,9 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1510,6 +1588,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1519,7 +1598,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1829,55 +1911,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="21" customWidth="1"/>
-    <col min="3" max="3" width="20" style="24" customWidth="1"/>
+    <col min="1" max="2" width="66.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
     <col min="4" max="4" width="22" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.85546875" style="21"/>
-    <col min="9" max="10" width="11.42578125" style="23"/>
-    <col min="11" max="11" width="16.5703125" style="30" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="22"/>
+    <col min="11" max="11" width="16.5703125" style="29" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="21" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="22" customWidth="1"/>
     <col min="17" max="17" width="29.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="68.5703125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="68.5703125" style="23" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" style="21" customWidth="1"/>
     <col min="20" max="20" width="24.5703125" style="21" customWidth="1"/>
     <col min="21" max="21" width="41.42578125" style="21" customWidth="1"/>
     <col min="22" max="22" width="54.85546875" style="21" customWidth="1"/>
     <col min="23" max="23" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="51.85546875" style="24" customWidth="1"/>
+    <col min="24" max="24" width="51.85546875" style="23" customWidth="1"/>
     <col min="25" max="25" width="42" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="47.5703125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="47.5703125" style="23" customWidth="1"/>
     <col min="27" max="27" width="51.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.140625" style="21" customWidth="1"/>
     <col min="29" max="29" width="31" style="21" customWidth="1"/>
-    <col min="30" max="16384" width="10.85546875" style="21"/>
+    <col min="30" max="30" width="75" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="45.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
+    <row r="1" spans="1:31" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -1901,7 +1984,7 @@
       <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1913,16 +1996,16 @@
       <c r="N1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1958,13 +2041,19 @@
       <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" customFormat="1" ht="120">
+      <c r="AD1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" customFormat="1" ht="120">
       <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>116</v>
@@ -1979,15 +2068,15 @@
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="29">
+        <v>287</v>
+      </c>
+      <c r="I2" s="28">
         <v>43466</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="28">
         <v>43506</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <v>43506</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -1997,16 +2086,16 @@
         <v>9</v>
       </c>
       <c r="N2" s="15"/>
-      <c r="O2" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>199</v>
+      <c r="O2" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="27" t="str">
+      <c r="R2" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A3," ",boundingbox!C3,", ",boundingbox!A3," ",boundingbox!D3,", ",boundingbox!B3," ",boundingbox!D3,", ",boundingbox!B3," ",boundingbox!C3,", ",boundingbox!A3," ",boundingbox!C3,"))")</f>
         <v>POLYGON(( ﻿3.5473870000000001 45.9992730000000023 , ﻿3.5473870000000001 46.0081670000000003, 3.5518930000000002 46.0081670000000003, 3.5518930000000002 45.9992730000000023 , ﻿3.5473870000000001 45.9992730000000023 ))</v>
       </c>
@@ -2014,16 +2103,16 @@
         <v>4326</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="W2" s="14"/>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y2" s="14" t="s">
@@ -2033,15 +2122,24 @@
         <v>66</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" customFormat="1" ht="120">
+        <v>207</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" customFormat="1" ht="120">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>115</v>
@@ -2056,15 +2154,15 @@
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" s="29">
+        <v>287</v>
+      </c>
+      <c r="I3" s="28">
         <v>43466</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>43506</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <v>43506</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2074,16 +2172,16 @@
         <v>9</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>199</v>
+      <c r="O3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="27" t="str">
+      <c r="R3" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A4," ",boundingbox!C4,", ",boundingbox!A4," ",boundingbox!D4,", ",boundingbox!B4," ",boundingbox!D4,", ",boundingbox!B4," ",boundingbox!C4,", ",boundingbox!A4," ",boundingbox!C4,"))")</f>
         <v>POLYGON(( ﻿3.5481005130000001 45.9974706300000022, ﻿3.5481005130000001 46.0115150399999990, 3.5572385880000001 46.0115150399999990, 3.5572385880000001 45.9974706300000022, ﻿3.5481005130000001 45.9974706300000022))</v>
       </c>
@@ -2091,16 +2189,16 @@
         <v>4326</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="W3" s="14"/>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y3" s="14" t="s">
@@ -2113,12 +2211,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:29" customFormat="1" ht="120">
+    <row r="4" spans="1:31" customFormat="1" ht="120">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>114</v>
@@ -2133,15 +2231,15 @@
         <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" s="29">
+        <v>287</v>
+      </c>
+      <c r="I4" s="28">
         <v>43466</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>43506</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>43506</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2151,16 +2249,16 @@
         <v>9</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>200</v>
+      <c r="O4" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="27" t="str">
+      <c r="R4" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A5," ",boundingbox!C5,", ",boundingbox!A5," ",boundingbox!D5,", ",boundingbox!B5," ",boundingbox!D5,", ",boundingbox!B5," ",boundingbox!C5,", ",boundingbox!A5," ",boundingbox!C5,"))")</f>
         <v>POLYGON(( 3.5476429999999999 46.0064619999999991, 3.5476429999999999 46.0144080000000031, 3.5610599999999999 46.0144080000000031, 3.5610599999999999 46.0064619999999991, 3.5476429999999999 46.0064619999999991))</v>
       </c>
@@ -2168,16 +2266,16 @@
         <v>4326</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U4" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="W4" s="14"/>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y4" s="14" t="s">
@@ -2188,12 +2286,12 @@
       </c>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:29" customFormat="1" ht="150">
+    <row r="5" spans="1:31" customFormat="1" ht="150">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>132</v>
@@ -2208,15 +2306,15 @@
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="29">
+        <v>287</v>
+      </c>
+      <c r="I5" s="28">
         <v>43466</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>43506</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>43506</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -2226,16 +2324,16 @@
         <v>9</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>206</v>
+      <c r="O5" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="27" t="str">
+      <c r="R5" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A6," ",boundingbox!C6,", ",boundingbox!A6," ",boundingbox!D6,", ",boundingbox!B6," ",boundingbox!D6,", ",boundingbox!B6," ",boundingbox!C6,", ",boundingbox!A6," ",boundingbox!C6,"))")</f>
         <v>POLYGON(( 3.3616944400000000 46.0019811000000018, 3.3616944400000000 46.0253888900000021, 3.5559650000000000 46.0253888900000021, 3.5559650000000000 46.0019811000000018, 3.3616944400000000 46.0019811000000018))</v>
       </c>
@@ -2243,16 +2341,16 @@
         <v>4326</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>137</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="W5" s="14"/>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y5" s="14" t="s">
@@ -2263,12 +2361,12 @@
       </c>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:29" customFormat="1" ht="120">
+    <row r="6" spans="1:31" customFormat="1" ht="120">
       <c r="A6" s="3" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>133</v>
@@ -2283,15 +2381,15 @@
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="29">
+        <v>287</v>
+      </c>
+      <c r="I6" s="28">
         <v>43466</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>43506</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <v>43506</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -2301,16 +2399,16 @@
         <v>9</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>205</v>
+      <c r="O6" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="27" t="str">
+      <c r="R6" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A7," ",boundingbox!C7,", ",boundingbox!A7," ",boundingbox!D7,", ",boundingbox!B7," ",boundingbox!D7,", ",boundingbox!B7," ",boundingbox!C7,", ",boundingbox!A7," ",boundingbox!C7,"))")</f>
         <v>POLYGON(( 3.0000000000000000 46.0069721999999999, 3.0000000000000000 46.0122100000000032, 3.5532450000000000 46.0122100000000032, 3.5532450000000000 46.0069721999999999, 3.0000000000000000 46.0069721999999999))</v>
       </c>
@@ -2318,16 +2416,16 @@
         <v>4326</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U6" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="W6" s="14"/>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y6" s="14" t="s">
@@ -2338,12 +2436,12 @@
       </c>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:29" customFormat="1" ht="162" customHeight="1">
+    <row r="7" spans="1:31" customFormat="1" ht="162" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>134</v>
@@ -2358,15 +2456,15 @@
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="29">
+        <v>287</v>
+      </c>
+      <c r="I7" s="28">
         <v>43466</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>43506</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>43506</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2376,16 +2474,16 @@
         <v>9</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>204</v>
+      <c r="O7" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="27" t="str">
+      <c r="R7" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A8," ",boundingbox!C8,", ",boundingbox!A8," ",boundingbox!D8,", ",boundingbox!B8," ",boundingbox!D8,", ",boundingbox!B8," ",boundingbox!C8,", ",boundingbox!A8," ",boundingbox!C8,"))")</f>
         <v>POLYGON(( 3.2210000000000001 46.0070419999999984, 3.2210000000000001 46.0087619999999973, 3.5525080000000000 46.0087619999999973, 3.5525080000000000 46.0070419999999984, 3.2210000000000001 46.0070419999999984))</v>
       </c>
@@ -2393,7 +2491,7 @@
         <v>4326</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>136</v>
@@ -2402,7 +2500,7 @@
         <v>143</v>
       </c>
       <c r="W7" s="14"/>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y7" s="14" t="s">
@@ -2413,12 +2511,12 @@
       </c>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:29" customFormat="1" ht="120">
+    <row r="8" spans="1:31" customFormat="1" ht="120">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>135</v>
@@ -2433,15 +2531,15 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="29">
+        <v>287</v>
+      </c>
+      <c r="I8" s="28">
         <v>43466</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>43506</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>43506</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2451,16 +2549,16 @@
         <v>9</v>
       </c>
       <c r="N8" s="15"/>
-      <c r="O8" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>208</v>
+      <c r="O8" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="27" t="str">
+      <c r="R8" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A9," ",boundingbox!C9,", ",boundingbox!A9," ",boundingbox!D9,", ",boundingbox!B9," ",boundingbox!D9,", ",boundingbox!B9," ",boundingbox!C9,", ",boundingbox!A9," ",boundingbox!C9,"))")</f>
         <v>POLYGON(( 2.9917769999999999 45.4477649999999969, 2.9917769999999999 46.0209850000000031, 3.5308500000000000 46.0209850000000031, 3.5308500000000000 45.4477649999999969, 2.9917769999999999 45.4477649999999969))</v>
       </c>
@@ -2468,16 +2566,16 @@
         <v>4326</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U8" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="W8" s="14"/>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="24" t="s">
         <v>94</v>
       </c>
       <c r="Y8" s="14"/>
@@ -2486,12 +2584,12 @@
       </c>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="129.75" customHeight="1">
+    <row r="9" spans="1:31" ht="129.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>113</v>
@@ -2506,15 +2604,15 @@
         <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="29">
+        <v>287</v>
+      </c>
+      <c r="I9" s="28">
         <v>43466</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>43506</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>43506</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -2524,16 +2622,16 @@
         <v>9</v>
       </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>209</v>
+      <c r="O9" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A10," ",boundingbox!C10,", ",boundingbox!A10," ",boundingbox!D10,", ",boundingbox!B10," ",boundingbox!D10,", ",boundingbox!B10," ",boundingbox!C10,", ",boundingbox!A10," ",boundingbox!C10,"))")</f>
         <v>POLYGON(( 3.5407160000000002 46.0058620000000005, 3.5407160000000002 46.0134970000000010, 3.5559650000000000 46.0134970000000010, 3.5559650000000000 46.0058620000000005, 3.5407160000000002 46.0058620000000005))</v>
       </c>
@@ -2541,16 +2639,16 @@
         <v>4326</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U9" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="W9" s="14"/>
-      <c r="X9" s="25" t="s">
+      <c r="X9" s="24" t="s">
         <v>152</v>
       </c>
       <c r="Y9" s="14" t="s">
@@ -2561,12 +2659,12 @@
       </c>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="120">
+    <row r="10" spans="1:31" ht="120">
       <c r="A10" s="3" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>112</v>
@@ -2581,15 +2679,15 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I10" s="29">
+        <v>287</v>
+      </c>
+      <c r="I10" s="28">
         <v>43466</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>43506</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>43506</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -2599,16 +2697,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="15"/>
-      <c r="O10" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>203</v>
+      <c r="O10" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A11," ",boundingbox!C11,", ",boundingbox!A11," ",boundingbox!D11,", ",boundingbox!B11," ",boundingbox!D11,", ",boundingbox!B11," ",boundingbox!C11,", ",boundingbox!A11," ",boundingbox!C11,"))")</f>
         <v>POLYGON(( 3.5504556345032290 46.0070818580659449, 3.5504556345032290 46.0093014690859263, 3.5525504189390622 46.0093014690859263, 3.5525504189390622 46.0070818580659449, 3.5504556345032290 46.0070818580659449))</v>
       </c>
@@ -2616,16 +2714,16 @@
         <v>4326</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U10" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="W10" s="14"/>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y10" s="14" t="s">
@@ -2636,12 +2734,12 @@
       </c>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="120">
+    <row r="11" spans="1:31" ht="120">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>111</v>
@@ -2656,15 +2754,15 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I11" s="29">
+        <v>287</v>
+      </c>
+      <c r="I11" s="28">
         <v>43466</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>43506</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>43506</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -2674,16 +2772,16 @@
         <v>9</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>205</v>
+      <c r="O11" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A12," ",boundingbox!C12,", ",boundingbox!A12," ",boundingbox!D12,", ",boundingbox!B12," ",boundingbox!D12,", ",boundingbox!B12," ",boundingbox!C12,", ",boundingbox!A12," ",boundingbox!C12,"))")</f>
         <v>POLYGON(( 3.5403020000000001 45.9865929999999992, 3.5403020000000001 46.0158920000000009, 3.5574430000000001 46.0158920000000009, 3.5574430000000001 45.9865929999999992, 3.5403020000000001 45.9865929999999992))</v>
       </c>
@@ -2691,16 +2789,16 @@
         <v>4326</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U11" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="W11" s="14"/>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="24" t="s">
         <v>152</v>
       </c>
       <c r="Y11" s="14" t="s">
@@ -2711,12 +2809,12 @@
       </c>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="90">
+    <row r="12" spans="1:31" ht="90">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>110</v>
@@ -2731,15 +2829,15 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>300</v>
-      </c>
-      <c r="I12" s="29">
+        <v>287</v>
+      </c>
+      <c r="I12" s="28">
         <v>43466</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>43506</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>43506</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -2749,16 +2847,16 @@
         <v>9</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>206</v>
+      <c r="O12" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="26" t="str">
         <f>CONCATENATE("POLYGON(( ",boundingbox!A13," ",boundingbox!C13,", ",boundingbox!A13," ",boundingbox!D13,", ",boundingbox!B13," ",boundingbox!D13,", ",boundingbox!B13," ",boundingbox!C13,", ",boundingbox!A13," ",boundingbox!C13,"))")</f>
         <v>POLYGON(( 3.2210000000000001 45.9976879999999966, 3.2210000000000001 46.0099999999999980, 3.5560000000000000 46.0099999999999980, 3.5560000000000000 45.9976879999999966, 3.2210000000000001 45.9976879999999966))</v>
       </c>
@@ -2766,16 +2864,16 @@
         <v>4326</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="U12" s="14" t="s">
         <v>136</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="W12" s="14"/>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="24" t="s">
         <v>153</v>
       </c>
       <c r="Y12" s="14" t="s">
@@ -2786,8 +2884,83 @@
       </c>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:29">
-      <c r="F13" s="22"/>
+    <row r="13" spans="1:31" ht="90">
+      <c r="A13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="28">
+        <v>43466</v>
+      </c>
+      <c r="J13" s="28">
+        <v>43506</v>
+      </c>
+      <c r="K13" s="31">
+        <v>43506</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="26" t="str">
+        <f>CONCATENATE("POLYGON(( ",boundingbox!A14," ",boundingbox!C14,", ",boundingbox!A14," ",boundingbox!D14,", ",boundingbox!B14," ",boundingbox!D14,", ",boundingbox!B14," ",boundingbox!C14,", ",boundingbox!A14," ",boundingbox!C14,"))")</f>
+        <v>POLYGON(( x y, x y, x y, x y, x y))</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4327</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC12"/>
@@ -2804,37 +2977,37 @@
           <x14:formula1>
             <xm:f>listes!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>listes!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G12</xm:sqref>
+          <xm:sqref>F2:F14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>listes!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>listes!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L12</xm:sqref>
+          <xm:sqref>H2:H13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>listes!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M12</xm:sqref>
+          <xm:sqref>M2:M13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>listes!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S12</xm:sqref>
+          <xm:sqref>S2:S13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listes!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listes!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2844,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3013,7 +3186,7 @@
       <c r="E4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>173</v>
       </c>
       <c r="G4" t="s">
@@ -3057,7 +3230,7 @@
       <c r="E5" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>173</v>
       </c>
       <c r="G5" t="s">
@@ -3101,7 +3274,7 @@
       <c r="E6" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>173</v>
       </c>
       <c r="G6" t="s">
@@ -3127,6 +3300,52 @@
       </c>
       <c r="N6" s="2" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7">
+        <v>17000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3141,6 +3360,8 @@
     <hyperlink ref="N5" r:id="rId8"/>
     <hyperlink ref="N6" r:id="rId9"/>
     <hyperlink ref="N3" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="A8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3148,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3182,7 +3403,7 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
@@ -3373,6 +3594,20 @@
       <c r="G13" t="str">
         <f>metadata!D12</f>
         <v>Eaux ZATU</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3620,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3463,20 +3698,20 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>303</v>
+        <v>291</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3496,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3510,2041 +3745,2041 @@
   <sheetData>
     <row r="1" spans="1:40" ht="15.75">
       <c r="A1" s="75" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15.75">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:40" ht="16.5" customHeight="1">
       <c r="A3" s="76" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="45" customHeight="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:40" ht="15.75">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:40" s="41" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:40" ht="15.75">
+      <c r="A7" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:40" ht="15.75">
+      <c r="A8" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:40" ht="15.75">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:40" ht="15.75">
+      <c r="A10" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:40" ht="15.75">
+      <c r="A11" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:40" ht="15.75">
+      <c r="A12" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:40" ht="16.5" thickBot="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:40" ht="33.75" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:40" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="D14" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="1:40" ht="15.75">
-      <c r="A7" s="40" t="s">
+      <c r="E14" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-    </row>
-    <row r="8" spans="1:40" ht="15.75">
-      <c r="A8" s="43" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+    </row>
+    <row r="15" spans="1:40" ht="99.75" customHeight="1">
+      <c r="A15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:40" ht="15.75">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:40" ht="15.75">
-      <c r="A10" s="43" t="s">
+      <c r="C15" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:40" ht="15.75">
-      <c r="A11" s="40" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+    </row>
+    <row r="16" spans="1:40" ht="39.75" customHeight="1">
+      <c r="A16" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+    </row>
+    <row r="17" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+    </row>
+    <row r="18" spans="1:29" ht="30.75">
+      <c r="A18" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:40" ht="15.75">
-      <c r="A12" s="40" t="s">
+      <c r="B18" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="45" t="s">
+      <c r="C18" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+    </row>
+    <row r="19" spans="1:29" ht="75.75">
+      <c r="A19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:40" ht="33.75" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="C19" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+    </row>
+    <row r="20" spans="1:29" ht="45.75">
+      <c r="A20" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="C20" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+    </row>
+    <row r="21" spans="1:29" ht="31.5">
+      <c r="A21" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="C21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+    </row>
+    <row r="22" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A22" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-    </row>
-    <row r="15" spans="1:40" ht="99.75" customHeight="1">
-      <c r="A15" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="C22" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+    </row>
+    <row r="23" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C23" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-    </row>
-    <row r="16" spans="1:40" ht="39.75" customHeight="1">
-      <c r="A16" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="53" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-    </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A17" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-    </row>
-    <row r="18" spans="1:29" ht="30.75">
-      <c r="A18" s="58" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+    </row>
+    <row r="24" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A24" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="C24" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-    </row>
-    <row r="19" spans="1:29" ht="75.75">
-      <c r="A19" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="59" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+    </row>
+    <row r="25" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-    </row>
-    <row r="20" spans="1:29" ht="45.75">
-      <c r="A20" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="59" t="s">
+      <c r="C25" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="64">
+        <v>43518</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+    </row>
+    <row r="26" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C26" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60" t="s">
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+    </row>
+    <row r="27" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A27" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-    </row>
-    <row r="21" spans="1:29" ht="31.5">
-      <c r="A21" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="59" t="s">
+      <c r="C27" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A28" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-    </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="59" t="s">
+      <c r="C28" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-    </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A23" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="62" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+    </row>
+    <row r="29" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A29" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C29" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+    </row>
+    <row r="30" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A30" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63" t="s">
+      <c r="C30" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+    </row>
+    <row r="31" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A31" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-    </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A24" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="62" t="s">
+      <c r="C31" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+    </row>
+    <row r="32" spans="1:29" ht="84.75" customHeight="1">
+      <c r="A32" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63" t="s">
+      <c r="C32" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-    </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A25" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="D32" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="65">
-        <v>43518</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-    </row>
-    <row r="26" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A26" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="E32" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+    </row>
+    <row r="33" spans="1:29" ht="105.75">
+      <c r="A33" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-    </row>
-    <row r="27" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A27" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="62" t="s">
+      <c r="C33" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63" t="s">
+      <c r="D33" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-    </row>
-    <row r="28" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A28" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="62" t="s">
+      <c r="E33" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+    </row>
+    <row r="34" spans="1:29" ht="130.5" customHeight="1">
+      <c r="A34" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-    </row>
-    <row r="29" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A29" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="62" t="s">
+      <c r="C34" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-    </row>
-    <row r="30" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A30" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="D34" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-    </row>
-    <row r="31" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A31" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="62" t="s">
+      <c r="E34" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+    </row>
+    <row r="35" spans="1:29" ht="102" customHeight="1">
+      <c r="A35" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-    </row>
-    <row r="32" spans="1:29" ht="84.75" customHeight="1">
-      <c r="A32" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="D35" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="E35" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+    </row>
+    <row r="36" spans="1:29" ht="93" customHeight="1">
+      <c r="A36" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="C36" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-    </row>
-    <row r="33" spans="1:29" ht="105.75">
-      <c r="A33" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="62" t="s">
+      <c r="D36" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="E36" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+    </row>
+    <row r="37" spans="1:29" ht="42.75" customHeight="1">
+      <c r="A37" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+    </row>
+    <row r="38" spans="1:29" ht="69" customHeight="1">
+      <c r="A38" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="C38" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-    </row>
-    <row r="34" spans="1:29" ht="130.5" customHeight="1">
-      <c r="A34" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="62" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+    </row>
+    <row r="39" spans="1:29" ht="45" customHeight="1">
+      <c r="A39" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C39" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+    </row>
+    <row r="40" spans="1:29" ht="137.25" customHeight="1">
+      <c r="A40" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="C40" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-    </row>
-    <row r="35" spans="1:29" ht="102" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="62" t="s">
+      <c r="D40" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="E40" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+    </row>
+    <row r="41" spans="1:29" ht="36" customHeight="1">
+      <c r="A41" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-    </row>
-    <row r="36" spans="1:29" ht="93" customHeight="1">
-      <c r="A36" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="62" t="s">
+      <c r="C41" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+    </row>
+    <row r="42" spans="1:29" ht="24.95" customHeight="1">
+      <c r="A42" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E36" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-    </row>
-    <row r="37" spans="1:29" ht="42.75" customHeight="1">
-      <c r="A37" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="62" t="s">
+      <c r="C42" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+    </row>
+    <row r="43" spans="1:29" ht="29.25" customHeight="1">
+      <c r="A43" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-    </row>
-    <row r="38" spans="1:29" ht="69" customHeight="1">
-      <c r="A38" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-    </row>
-    <row r="39" spans="1:29" ht="45" customHeight="1">
-      <c r="A39" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-    </row>
-    <row r="40" spans="1:29" ht="137.25" customHeight="1">
-      <c r="A40" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-    </row>
-    <row r="41" spans="1:29" ht="36" customHeight="1">
-      <c r="A41" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-    </row>
-    <row r="42" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A42" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-    </row>
-    <row r="43" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A43" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-    </row>
-    <row r="44" spans="1:29" s="38" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-    </row>
-    <row r="45" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-    </row>
-    <row r="46" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-    </row>
-    <row r="47" spans="1:29" s="38" customFormat="1" ht="54" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-    </row>
-    <row r="48" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="43"/>
-      <c r="AC48" s="43"/>
-    </row>
-    <row r="49" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="43"/>
-      <c r="AC49" s="43"/>
-    </row>
-    <row r="50" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
-      <c r="AC50" s="43"/>
-    </row>
-    <row r="51" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-    </row>
-    <row r="52" spans="1:29" s="38" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="43"/>
-      <c r="AB52" s="43"/>
-      <c r="AC52" s="43"/>
-    </row>
-    <row r="53" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="43"/>
-    </row>
-    <row r="54" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="43"/>
-      <c r="AB54" s="43"/>
-      <c r="AC54" s="43"/>
-    </row>
-    <row r="55" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="43"/>
-      <c r="AC55" s="43"/>
-    </row>
-    <row r="56" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="43"/>
-      <c r="AA56" s="43"/>
-      <c r="AB56" s="43"/>
-      <c r="AC56" s="43"/>
-    </row>
-    <row r="57" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A57" s="46"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43"/>
-      <c r="AA57" s="43"/>
-      <c r="AB57" s="43"/>
-      <c r="AC57" s="43"/>
-    </row>
-    <row r="58" spans="1:29" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="43"/>
+      <c r="C43" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="54"/>
+    </row>
+    <row r="44" spans="1:29" s="37" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A44" s="69"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+    </row>
+    <row r="45" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="69"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+    </row>
+    <row r="46" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="72"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+    </row>
+    <row r="47" spans="1:29" s="37" customFormat="1" ht="54" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+    </row>
+    <row r="48" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A48" s="42"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+    </row>
+    <row r="49" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A49" s="42"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+    </row>
+    <row r="50" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+    </row>
+    <row r="51" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A51" s="42"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+    </row>
+    <row r="52" spans="1:29" s="37" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A52" s="42"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+    </row>
+    <row r="53" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+    </row>
+    <row r="54" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A54" s="42"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+    </row>
+    <row r="55" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A55" s="42"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+    </row>
+    <row r="56" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+    </row>
+    <row r="57" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A57" s="45"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="42"/>
+      <c r="AC57" s="42"/>
+    </row>
+    <row r="58" spans="1:29" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
     </row>
     <row r="59" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-      <c r="AC59" s="55"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
     </row>
     <row r="60" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
     </row>
     <row r="61" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
     </row>
     <row r="62" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
     </row>
     <row r="63" spans="1:29" ht="24.95" customHeight="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
     </row>
     <row r="64" spans="1:29" ht="24.95" customHeight="1"/>
     <row r="65" ht="24.95" customHeight="1"/>
@@ -5573,7 +5808,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5614,7 +5849,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5628,25 +5863,31 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F3">
         <v>2154</v>
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>297</v>
+      </c>
       <c r="F4">
         <v>3946</v>
       </c>
